--- a/testfiles/16/original_packing_list.xlsx
+++ b/testfiles/16/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" tabRatio="495"/>
+    <workbookView windowWidth="24750" windowHeight="11630" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name=" 2021年最新版本" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$2:$AB$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$1:$AA$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$3:$AB$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$2:$AA$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,31 +39,6 @@
     <author>123</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">给工厂的时候需删除此列
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给工厂的时候需删除此列</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Z2" authorId="0">
       <text>
         <r>
@@ -78,6 +53,31 @@
       </text>
     </comment>
     <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2278,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A2:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I23"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="30" customHeight="1"/>
@@ -2307,275 +2307,184 @@
     <col min="16375" max="16384" width="10.6363636363636" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A1" s="13" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AA2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:27">
-      <c r="A2" s="13" t="s">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:27">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="U3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X3" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="79" t="s">
+      <c r="AA3" s="79" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="22" t="str">
-        <f>VLOOKUP(B3,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>三维锡膏检测系统</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="40" t="str">
-        <f>VLOOKUP(B3,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>S8080D</v>
-      </c>
-      <c r="J3" s="41">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="43">
-        <f ca="1" t="shared" ref="M3:M8" si="0">ROUND(EVALUATE(L3)*1000*0.000000001,2)</f>
-        <v>3.58</v>
-      </c>
-      <c r="N3" s="43">
-        <f ca="1" t="shared" ref="N3:N14" si="1">J3*M3</f>
-        <v>3.58</v>
-      </c>
-      <c r="O3" s="43">
-        <v>1170</v>
-      </c>
-      <c r="P3" s="18">
-        <f t="shared" ref="P3:P11" si="2">O3*T3</f>
-        <v>1170</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>1120</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1120</v>
-      </c>
-      <c r="S3" s="45">
-        <v>1</v>
-      </c>
-      <c r="T3" s="45">
-        <f t="shared" ref="T3:T11" si="3">J3/S3</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="80">
-        <v>200000</v>
-      </c>
-      <c r="AA3" s="81">
-        <v>0.13</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>57</v>
@@ -2584,18 +2493,18 @@
         <v>58</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G4" s="22" t="str">
         <f>VLOOKUP(B4,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>ICT测试仪</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>71</v>
+        <v>三维锡膏检测系统</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="40" t="str">
         <f>VLOOKUP(B4,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>TRI 518SII</v>
+        <v>S8080D</v>
       </c>
       <c r="J4" s="41">
         <v>1</v>
@@ -2604,38 +2513,38 @@
         <v>61</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M4" s="43">
-        <f ca="1" t="shared" si="0"/>
-        <v>1.32</v>
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
+        <v>3.58</v>
       </c>
       <c r="N4" s="43">
-        <f ca="1" t="shared" si="1"/>
-        <v>1.32</v>
+        <f ca="1" t="shared" ref="N4:N15" si="1">J4*M4</f>
+        <v>3.58</v>
       </c>
       <c r="O4" s="43">
-        <v>300</v>
+        <v>1170</v>
       </c>
       <c r="P4" s="18">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" ref="P4:P12" si="2">O4*T4</f>
+        <v>1170</v>
       </c>
       <c r="Q4" s="18">
-        <v>250</v>
+        <v>1120</v>
       </c>
       <c r="R4" s="18">
-        <v>250</v>
-      </c>
-      <c r="S4" s="18">
+        <v>1120</v>
+      </c>
+      <c r="S4" s="45">
         <v>1</v>
       </c>
-      <c r="T4" s="18">
-        <f t="shared" si="3"/>
+      <c r="T4" s="45">
+        <f t="shared" ref="T4:T12" si="3">J4/S4</f>
         <v>1</v>
       </c>
       <c r="U4" s="66" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V4" s="67"/>
       <c r="W4" s="67"/>
@@ -2646,10 +2555,10 @@
         <v>65</v>
       </c>
       <c r="Z4" s="80">
-        <v>53800</v>
+        <v>200000</v>
       </c>
       <c r="AA4" s="81">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>66</v>
@@ -2660,13 +2569,13 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>57</v>
@@ -2675,18 +2584,18 @@
         <v>58</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>VLOOKUP(B5,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>三防漆自动喷漆机</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>77</v>
+        <v>ICT测试仪</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="40" t="str">
         <f>VLOOKUP(B5,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>mVision6a</v>
+        <v>TRI 518SII</v>
       </c>
       <c r="J5" s="41">
         <v>1</v>
@@ -2694,29 +2603,29 @@
       <c r="K5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>78</v>
+      <c r="L5" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="M5" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="O5" s="43">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="18">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="R5" s="18">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="S5" s="18">
         <v>1</v>
@@ -2726,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V5" s="67"/>
       <c r="W5" s="67"/>
@@ -2737,10 +2646,10 @@
         <v>65</v>
       </c>
       <c r="Z5" s="80">
-        <v>67700</v>
+        <v>53800</v>
       </c>
       <c r="AA5" s="81">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>66</v>
@@ -2749,15 +2658,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:29">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A6" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>57</v>
@@ -2766,18 +2675,18 @@
         <v>58</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" s="22" t="str">
         <f>VLOOKUP(B6,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>全自动锡膏印刷机</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>83</v>
+        <v>三防漆自动喷漆机</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="I6" s="40" t="str">
         <f>VLOOKUP(B6,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>/</v>
+        <v>mVision6a</v>
       </c>
       <c r="J6" s="41">
         <v>1</v>
@@ -2785,29 +2694,29 @@
       <c r="K6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>84</v>
+      <c r="L6" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="M6" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="N6" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="O6" s="43">
-        <v>1050</v>
+        <v>470</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>1050</v>
+        <v>470</v>
       </c>
       <c r="Q6" s="18">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="R6" s="18">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="S6" s="18">
         <v>1</v>
@@ -2817,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V6" s="67"/>
       <c r="W6" s="67"/>
@@ -2828,7 +2737,7 @@
         <v>65</v>
       </c>
       <c r="Z6" s="80">
-        <v>93000</v>
+        <v>67700</v>
       </c>
       <c r="AA6" s="81">
         <v>0.13</v>
@@ -2840,12 +2749,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="29" customHeight="1" spans="1:29">
+    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:29">
       <c r="A7" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>81</v>
@@ -2908,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V7" s="67"/>
       <c r="W7" s="67"/>
@@ -2931,15 +2840,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:29">
       <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>57</v>
@@ -2948,18 +2857,18 @@
         <v>58</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" s="22" t="str">
         <f>VLOOKUP(B8,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>自动光学检测仪</v>
+        <v>全自动锡膏印刷机</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I8" s="40" t="str">
         <f>VLOOKUP(B8,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>5000D</v>
+        <v>/</v>
       </c>
       <c r="J8" s="41">
         <v>1</v>
@@ -2968,30 +2877,30 @@
         <v>61</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M8" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>3.78</v>
+        <v>4.4</v>
       </c>
       <c r="N8" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>3.78</v>
+        <v>4.4</v>
       </c>
       <c r="O8" s="43">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>650</v>
-      </c>
-      <c r="R8" s="45">
-        <v>650</v>
-      </c>
-      <c r="S8" s="45">
+        <v>1050</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="18">
         <v>1</v>
       </c>
       <c r="T8" s="18">
@@ -2999,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="66" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
@@ -3010,10 +2919,10 @@
         <v>65</v>
       </c>
       <c r="Z8" s="80">
-        <v>90000</v>
+        <v>93000</v>
       </c>
       <c r="AA8" s="81">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>66</v>
@@ -3024,73 +2933,73 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A9" s="18">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>96</v>
+      <c r="F9" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="G9" s="22" t="str">
         <f>VLOOKUP(B9,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>钢网</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>97</v>
+        <v>自动光学检测仪</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I9" s="40" t="str">
         <f>VLOOKUP(B9,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J9" s="44">
-        <v>2</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>98</v>
+        <v>5000D</v>
+      </c>
+      <c r="J9" s="41">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M9" s="43">
-        <f ca="1" t="shared" ref="M9:M15" si="4">ROUND(EVALUATE(L9)*1000*0.000000001,2)</f>
-        <v>0.04</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>3.78</v>
       </c>
       <c r="N9" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
+        <v>3.78</v>
       </c>
       <c r="O9" s="43">
-        <v>7.4</v>
+        <v>700</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>7.4</v>
+        <v>700</v>
       </c>
       <c r="Q9" s="45">
-        <v>7.2</v>
+        <v>650</v>
       </c>
       <c r="R9" s="45">
-        <v>7.2</v>
+        <v>650</v>
       </c>
       <c r="S9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="66" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
@@ -3101,10 +3010,10 @@
         <v>65</v>
       </c>
       <c r="Z9" s="80">
-        <v>500</v>
+        <v>90000</v>
       </c>
       <c r="AA9" s="81">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>66</v>
@@ -3115,10 +3024,10 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A10" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>94</v>
@@ -3130,14 +3039,14 @@
         <v>58</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" s="22" t="str">
         <f>VLOOKUP(B10,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>分板治具</v>
+        <v>钢网</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I10" s="40" t="str">
         <f>VLOOKUP(B10,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3150,28 +3059,28 @@
         <v>98</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M10" s="43">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.05</v>
+        <f ca="1" t="shared" ref="M10:M16" si="4">ROUND(EVALUATE(L10)*1000*0.000000001,2)</f>
+        <v>0.04</v>
       </c>
       <c r="N10" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="18">
-        <v>4</v>
+        <v>0.08</v>
+      </c>
+      <c r="O10" s="43">
+        <v>7.4</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="Q10" s="45">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="R10" s="45">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="S10" s="45">
         <v>2</v>
@@ -3181,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="66" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V10" s="67"/>
       <c r="W10" s="67"/>
@@ -3192,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="Z10" s="80">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AA10" s="81">
         <v>0.13</v>
@@ -3204,78 +3113,78 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:29">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A11" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>109</v>
+      <c r="F11" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="G11" s="22" t="str">
         <f>VLOOKUP(B11,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>波峰焊活动轨</v>
+        <v>分板治具</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I11" s="40" t="str">
         <f>VLOOKUP(B11,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J11" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="47">
+      <c r="L11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="43">
         <f ca="1" t="shared" si="4"/>
-        <v>1.08</v>
-      </c>
-      <c r="N11" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="O11" s="47">
-        <v>80</v>
-      </c>
-      <c r="P11" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4</v>
+      </c>
+      <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="Q11" s="51">
-        <v>25</v>
-      </c>
-      <c r="R11" s="51">
-        <v>78.59</v>
-      </c>
-      <c r="S11" s="51">
-        <v>1</v>
-      </c>
-      <c r="T11" s="48">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>3.8</v>
+      </c>
+      <c r="R11" s="45">
+        <v>3.8</v>
+      </c>
+      <c r="S11" s="45">
+        <v>2</v>
+      </c>
+      <c r="T11" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U11" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
+      <c r="U11" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
       <c r="X11" s="68" t="s">
         <v>64</v>
       </c>
@@ -3283,9 +3192,11 @@
         <v>65</v>
       </c>
       <c r="Z11" s="80">
-        <v>4520</v>
-      </c>
-      <c r="AA11" s="82"/>
+        <v>480</v>
+      </c>
+      <c r="AA11" s="81">
+        <v>0.13</v>
+      </c>
       <c r="AB11" s="1" t="s">
         <v>66</v>
       </c>
@@ -3295,10 +3206,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A12" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>107</v>
@@ -3310,14 +3221,14 @@
         <v>58</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G12" s="22" t="str">
         <f>VLOOKUP(B12,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>波峰焊固定轨</v>
+        <v>波峰焊活动轨</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I12" s="40" t="str">
         <f>VLOOKUP(B12,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3329,18 +3240,40 @@
       <c r="K12" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
+      <c r="L12" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="47">
+        <f ca="1" t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="N12" s="47">
+        <f ca="1" t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="O12" s="47">
+        <v>80</v>
+      </c>
+      <c r="P12" s="48">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
       <c r="Q12" s="51">
         <v>25</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="71"/>
+      <c r="R12" s="51">
+        <v>78.59</v>
+      </c>
+      <c r="S12" s="51">
+        <v>1</v>
+      </c>
+      <c r="T12" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="V12" s="70"/>
       <c r="W12" s="70"/>
       <c r="X12" s="68" t="s">
@@ -3362,10 +3295,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A13" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>107</v>
@@ -3377,21 +3310,21 @@
         <v>58</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13" s="22" t="str">
         <f>VLOOKUP(B13,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条导向轮</v>
+        <v>波峰焊固定轨</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" s="40" t="str">
         <f>VLOOKUP(B13,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J13" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>98</v>
@@ -3402,7 +3335,7 @@
       <c r="O13" s="50"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="51">
-        <v>1.52</v>
+        <v>25</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
@@ -3417,7 +3350,7 @@
         <v>65</v>
       </c>
       <c r="Z13" s="80">
-        <v>141.25</v>
+        <v>4520</v>
       </c>
       <c r="AA13" s="82"/>
       <c r="AB13" s="1" t="s">
@@ -3429,10 +3362,10 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A14" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>107</v>
@@ -3444,21 +3377,21 @@
         <v>58</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G14" s="22" t="str">
         <f>VLOOKUP(B14,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条齿轮</v>
+        <v>入口链条导向轮</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" s="40" t="str">
         <f>VLOOKUP(B14,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J14" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>98</v>
@@ -3484,7 +3417,7 @@
         <v>65</v>
       </c>
       <c r="Z14" s="80">
-        <v>226</v>
+        <v>141.25</v>
       </c>
       <c r="AA14" s="82"/>
       <c r="AB14" s="1" t="s">
@@ -3496,10 +3429,10 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A15" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>107</v>
@@ -3511,14 +3444,14 @@
         <v>58</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G15" s="22" t="str">
         <f>VLOOKUP(B15,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>螺旋齿轮</v>
+        <v>入口链条齿轮</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I15" s="40" t="str">
         <f>VLOOKUP(B15,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3551,7 +3484,7 @@
         <v>65</v>
       </c>
       <c r="Z15" s="80">
-        <v>565</v>
+        <v>226</v>
       </c>
       <c r="AA15" s="82"/>
       <c r="AB15" s="1" t="s">
@@ -3563,10 +3496,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A16" s="18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>107</v>
@@ -3578,14 +3511,14 @@
         <v>58</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G16" s="22" t="str">
         <f>VLOOKUP(B16,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>伞齿</v>
+        <v>螺旋齿轮</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I16" s="40" t="str">
         <f>VLOOKUP(B16,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3603,7 +3536,7 @@
       <c r="O16" s="50"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="51">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
@@ -3618,7 +3551,7 @@
         <v>65</v>
       </c>
       <c r="Z16" s="80">
-        <v>508.5</v>
+        <v>565</v>
       </c>
       <c r="AA16" s="82"/>
       <c r="AB16" s="1" t="s">
@@ -3630,10 +3563,10 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A17" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>107</v>
@@ -3645,14 +3578,14 @@
         <v>58</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G17" s="22" t="str">
         <f>VLOOKUP(B17,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>运输链条</v>
+        <v>伞齿</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I17" s="40" t="str">
         <f>VLOOKUP(B17,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3662,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -3670,7 +3603,7 @@
       <c r="O17" s="50"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="51">
-        <v>1.52</v>
+        <v>2.52</v>
       </c>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
@@ -3685,7 +3618,7 @@
         <v>65</v>
       </c>
       <c r="Z17" s="80">
-        <v>226</v>
+        <v>508.5</v>
       </c>
       <c r="AA17" s="82"/>
       <c r="AB17" s="1" t="s">
@@ -3697,10 +3630,10 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A18" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>107</v>
@@ -3712,14 +3645,14 @@
         <v>58</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" s="22" t="str">
         <f>VLOOKUP(B18,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>同步轮</v>
+        <v>运输链条</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>VLOOKUP(B18,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3729,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -3752,7 +3685,7 @@
         <v>65</v>
       </c>
       <c r="Z18" s="80">
-        <v>293.8</v>
+        <v>226</v>
       </c>
       <c r="AA18" s="82"/>
       <c r="AB18" s="1" t="s">
@@ -3764,10 +3697,10 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A19" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>107</v>
@@ -3779,14 +3712,14 @@
         <v>58</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G19" s="22" t="str">
         <f>VLOOKUP(B19,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条</v>
+        <v>同步轮</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I19" s="40" t="str">
         <f>VLOOKUP(B19,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3796,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -3804,7 +3737,7 @@
       <c r="O19" s="50"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51">
-        <v>3.56</v>
+        <v>1.52</v>
       </c>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
@@ -3819,7 +3752,7 @@
         <v>65</v>
       </c>
       <c r="Z19" s="80">
-        <v>226</v>
+        <v>293.8</v>
       </c>
       <c r="AA19" s="82"/>
       <c r="AB19" s="1" t="s">
@@ -3831,10 +3764,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A20" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>107</v>
@@ -3846,24 +3779,24 @@
         <v>58</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G20" s="22" t="str">
         <f>VLOOKUP(B20,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>活动轨牙箱</v>
+        <v>入口链条</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I20" s="40" t="str">
         <f>VLOOKUP(B20,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J20" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -3871,7 +3804,7 @@
       <c r="O20" s="50"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51">
-        <v>7</v>
+        <v>3.56</v>
       </c>
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
@@ -3886,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="Z20" s="80">
-        <v>1808</v>
+        <v>226</v>
       </c>
       <c r="AA20" s="82"/>
       <c r="AB20" s="1" t="s">
@@ -3898,10 +3831,10 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A21" s="18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>107</v>
@@ -3913,21 +3846,21 @@
         <v>58</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="22" t="str">
         <f>VLOOKUP(B21,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>流量计</v>
+        <v>活动轨牙箱</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I21" s="40" t="str">
         <f>VLOOKUP(B21,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J21" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>98</v>
@@ -3938,7 +3871,7 @@
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="51">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
@@ -3953,7 +3886,7 @@
         <v>65</v>
       </c>
       <c r="Z21" s="80">
-        <v>904</v>
+        <v>1808</v>
       </c>
       <c r="AA21" s="82"/>
       <c r="AB21" s="1" t="s">
@@ -3965,10 +3898,10 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A22" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>107</v>
@@ -3980,14 +3913,14 @@
         <v>58</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="22" t="str">
         <f>VLOOKUP(B22,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>毛刷</v>
+        <v>流量计</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I22" s="40" t="str">
         <f>VLOOKUP(B22,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -4005,7 +3938,7 @@
       <c r="O22" s="50"/>
       <c r="P22" s="51"/>
       <c r="Q22" s="51">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
@@ -4020,7 +3953,7 @@
         <v>65</v>
       </c>
       <c r="Z22" s="80">
-        <v>113</v>
+        <v>904</v>
       </c>
       <c r="AA22" s="82"/>
       <c r="AB22" s="1" t="s">
@@ -4032,10 +3965,10 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A23" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>107</v>
@@ -4047,37 +3980,37 @@
         <v>58</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G23" s="22" t="str">
         <f>VLOOKUP(B23,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>固定轨牙箱</v>
+        <v>毛刷</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I23" s="40" t="str">
         <f>VLOOKUP(B23,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J23" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45">
-        <v>7</v>
-      </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="72"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51">
+        <v>0.11</v>
+      </c>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="71"/>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
       <c r="X23" s="68" t="s">
@@ -4087,7 +4020,7 @@
         <v>65</v>
       </c>
       <c r="Z23" s="80">
-        <v>1808</v>
+        <v>113</v>
       </c>
       <c r="AA23" s="82"/>
       <c r="AB23" s="1" t="s">
@@ -4097,121 +4030,184 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A24" s="18">
-        <v>32</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43">
-        <f ca="1">SUM(M3:M23)</f>
-        <v>21.14</v>
-      </c>
-      <c r="N24" s="43">
-        <f ca="1">SUM(N3:N23)</f>
-        <v>21.23</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43">
-        <f>SUM(P3:P23)</f>
-        <v>4831.4</v>
-      </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="22" t="str">
+        <f>VLOOKUP(B24,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
+        <v>固定轨牙箱</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="40" t="str">
+        <f>VLOOKUP(B24,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J24" s="44">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45">
+        <v>7</v>
+      </c>
+      <c r="R24" s="45"/>
       <c r="S24" s="45"/>
-      <c r="T24" s="45">
-        <f>SUM(T3:T23)</f>
-        <v>9</v>
-      </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="80">
+        <v>1808</v>
+      </c>
+      <c r="AA24" s="82"/>
       <c r="AB24" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AC24" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="2"/>
+      <c r="A25" s="18">
+        <v>32</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43">
+        <f ca="1">SUM(M4:M24)</f>
+        <v>21.14</v>
+      </c>
+      <c r="N25" s="43">
+        <f ca="1">SUM(N4:N24)</f>
+        <v>21.23</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43">
+        <f>SUM(P4:P24)</f>
+        <v>4831.4</v>
+      </c>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45">
+        <f>SUM(T4:T24)</f>
+        <v>9</v>
+      </c>
+      <c r="U25" s="73"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="59">
-        <f>SUM(J3:J24)</f>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="59">
+        <f>SUM(J4:J25)</f>
         <v>36</v>
       </c>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="61" t="e">
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62">
-        <f>SUM(P3:P24)</f>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62">
+        <f>SUM(P4:P25)</f>
         <v>9662.8</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="84"/>
-    </row>
-    <row r="27" customHeight="1" spans="26:27">
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="83"/>
       <c r="AA27" s="84"/>
     </row>
@@ -4271,32 +4267,36 @@
       <c r="Z41" s="83"/>
       <c r="AA41" s="84"/>
     </row>
+    <row r="42" customHeight="1" spans="26:27">
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="84"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="L11:L23"/>
-    <mergeCell ref="M11:M23"/>
-    <mergeCell ref="N11:N23"/>
-    <mergeCell ref="O11:O23"/>
-    <mergeCell ref="P11:P23"/>
-    <mergeCell ref="R11:R23"/>
-    <mergeCell ref="S11:S23"/>
-    <mergeCell ref="T11:T23"/>
-    <mergeCell ref="U11:U23"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="L12:L24"/>
+    <mergeCell ref="M12:M24"/>
+    <mergeCell ref="N12:N24"/>
+    <mergeCell ref="O12:O24"/>
+    <mergeCell ref="P12:P24"/>
+    <mergeCell ref="R12:R24"/>
+    <mergeCell ref="S12:S24"/>
+    <mergeCell ref="T12:T24"/>
+    <mergeCell ref="U12:U24"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B65482">
+  <conditionalFormatting sqref="B28:B65483">
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testfiles/16/original_packing_list.xlsx
+++ b/testfiles/16/original_packing_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880" tabRatio="495"/>
+    <workbookView windowWidth="18350" windowHeight="6430" tabRatio="495"/>
   </bookViews>
   <sheets>
     <sheet name=" 2021年最新版本" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$2:$AB$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$1:$AA$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 2021年最新版本'!$A$3:$AB$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' 2021年最新版本'!$A$2:$AA$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,31 +39,6 @@
     <author>123</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">给工厂的时候需删除此列
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>给工厂的时候需删除此列</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Z2" authorId="0">
       <text>
         <r>
@@ -78,6 +53,31 @@
       </text>
     </comment>
     <comment ref="AA2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给工厂的时候需删除此列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给工厂的时候需删除此列
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2278,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A2:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6363636363636" defaultRowHeight="30" customHeight="1"/>
@@ -2307,275 +2307,184 @@
     <col min="16375" max="16384" width="10.6363636363636" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A1" s="13" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AA2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:27">
-      <c r="A2" s="13" t="s">
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:27">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="64" t="s">
+      <c r="U3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X3" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="79" t="s">
+      <c r="AA3" s="79" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:29">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="22" t="str">
-        <f>VLOOKUP(B3,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>三维锡膏检测系统</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="40" t="str">
-        <f>VLOOKUP(B3,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>S8080D</v>
-      </c>
-      <c r="J3" s="41">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="43">
-        <f ca="1" t="shared" ref="M3:M8" si="0">ROUND(EVALUATE(L3)*1000*0.000000001,2)</f>
-        <v>3.58</v>
-      </c>
-      <c r="N3" s="43">
-        <f ca="1" t="shared" ref="N3:N14" si="1">J3*M3</f>
-        <v>3.58</v>
-      </c>
-      <c r="O3" s="43">
-        <v>1170</v>
-      </c>
-      <c r="P3" s="18">
-        <f t="shared" ref="P3:P11" si="2">O3*T3</f>
-        <v>1170</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>1120</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1120</v>
-      </c>
-      <c r="S3" s="45">
-        <v>1</v>
-      </c>
-      <c r="T3" s="45">
-        <f t="shared" ref="T3:T11" si="3">J3/S3</f>
-        <v>1</v>
-      </c>
-      <c r="U3" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="80">
-        <v>200000</v>
-      </c>
-      <c r="AA3" s="81">
-        <v>0.13</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>57</v>
@@ -2584,18 +2493,18 @@
         <v>58</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G4" s="22" t="str">
         <f>VLOOKUP(B4,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>ICT测试仪</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>71</v>
+        <v>三维锡膏检测系统</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="40" t="str">
         <f>VLOOKUP(B4,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>TRI 518SII</v>
+        <v>S8080D</v>
       </c>
       <c r="J4" s="41">
         <v>1</v>
@@ -2604,38 +2513,38 @@
         <v>61</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M4" s="43">
-        <f ca="1" t="shared" si="0"/>
-        <v>1.32</v>
+        <f ca="1" t="shared" ref="M4:M9" si="0">ROUND(EVALUATE(L4)*1000*0.000000001,2)</f>
+        <v>3.58</v>
       </c>
       <c r="N4" s="43">
-        <f ca="1" t="shared" si="1"/>
-        <v>1.32</v>
+        <f ca="1" t="shared" ref="N4:N15" si="1">J4*M4</f>
+        <v>3.58</v>
       </c>
       <c r="O4" s="43">
-        <v>300</v>
+        <v>1170</v>
       </c>
       <c r="P4" s="18">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" ref="P4:P12" si="2">O4*T4</f>
+        <v>1170</v>
       </c>
       <c r="Q4" s="18">
-        <v>250</v>
+        <v>1120</v>
       </c>
       <c r="R4" s="18">
-        <v>250</v>
-      </c>
-      <c r="S4" s="18">
+        <v>1120</v>
+      </c>
+      <c r="S4" s="45">
         <v>1</v>
       </c>
-      <c r="T4" s="18">
-        <f t="shared" si="3"/>
+      <c r="T4" s="45">
+        <f t="shared" ref="T4:T12" si="3">J4/S4</f>
         <v>1</v>
       </c>
       <c r="U4" s="66" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V4" s="67"/>
       <c r="W4" s="67"/>
@@ -2646,10 +2555,10 @@
         <v>65</v>
       </c>
       <c r="Z4" s="80">
-        <v>53800</v>
+        <v>200000</v>
       </c>
       <c r="AA4" s="81">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>66</v>
@@ -2660,13 +2569,13 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>57</v>
@@ -2675,18 +2584,18 @@
         <v>58</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>VLOOKUP(B5,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>三防漆自动喷漆机</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>77</v>
+        <v>ICT测试仪</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="40" t="str">
         <f>VLOOKUP(B5,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>mVision6a</v>
+        <v>TRI 518SII</v>
       </c>
       <c r="J5" s="41">
         <v>1</v>
@@ -2694,29 +2603,29 @@
       <c r="K5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>78</v>
+      <c r="L5" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="M5" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="O5" s="43">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="18">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="R5" s="18">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="S5" s="18">
         <v>1</v>
@@ -2726,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V5" s="67"/>
       <c r="W5" s="67"/>
@@ -2737,10 +2646,10 @@
         <v>65</v>
       </c>
       <c r="Z5" s="80">
-        <v>67700</v>
+        <v>53800</v>
       </c>
       <c r="AA5" s="81">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>66</v>
@@ -2749,15 +2658,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:29">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A6" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>57</v>
@@ -2766,18 +2675,18 @@
         <v>58</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" s="22" t="str">
         <f>VLOOKUP(B6,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>全自动锡膏印刷机</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>83</v>
+        <v>三防漆自动喷漆机</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="I6" s="40" t="str">
         <f>VLOOKUP(B6,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>/</v>
+        <v>mVision6a</v>
       </c>
       <c r="J6" s="41">
         <v>1</v>
@@ -2785,29 +2694,29 @@
       <c r="K6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>84</v>
+      <c r="L6" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="M6" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="N6" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>4.4</v>
+        <v>2.49</v>
       </c>
       <c r="O6" s="43">
-        <v>1050</v>
+        <v>470</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="2"/>
-        <v>1050</v>
+        <v>470</v>
       </c>
       <c r="Q6" s="18">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="R6" s="18">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="S6" s="18">
         <v>1</v>
@@ -2817,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V6" s="67"/>
       <c r="W6" s="67"/>
@@ -2828,7 +2737,7 @@
         <v>65</v>
       </c>
       <c r="Z6" s="80">
-        <v>93000</v>
+        <v>67700</v>
       </c>
       <c r="AA6" s="81">
         <v>0.13</v>
@@ -2840,12 +2749,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="29" customHeight="1" spans="1:29">
+    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:29">
       <c r="A7" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>81</v>
@@ -2908,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V7" s="67"/>
       <c r="W7" s="67"/>
@@ -2931,15 +2840,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:29">
+    <row r="8" s="1" customFormat="1" ht="29" customHeight="1" spans="1:29">
       <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>69</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>57</v>
@@ -2948,18 +2857,18 @@
         <v>58</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" s="22" t="str">
         <f>VLOOKUP(B8,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>自动光学检测仪</v>
+        <v>全自动锡膏印刷机</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I8" s="40" t="str">
         <f>VLOOKUP(B8,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>5000D</v>
+        <v>/</v>
       </c>
       <c r="J8" s="41">
         <v>1</v>
@@ -2968,30 +2877,30 @@
         <v>61</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M8" s="43">
         <f ca="1" t="shared" si="0"/>
-        <v>3.78</v>
+        <v>4.4</v>
       </c>
       <c r="N8" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>3.78</v>
+        <v>4.4</v>
       </c>
       <c r="O8" s="43">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="2"/>
-        <v>700</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>650</v>
-      </c>
-      <c r="R8" s="45">
-        <v>650</v>
-      </c>
-      <c r="S8" s="45">
+        <v>1050</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="S8" s="18">
         <v>1</v>
       </c>
       <c r="T8" s="18">
@@ -2999,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="66" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
@@ -3010,10 +2919,10 @@
         <v>65</v>
       </c>
       <c r="Z8" s="80">
-        <v>90000</v>
+        <v>93000</v>
       </c>
       <c r="AA8" s="81">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>66</v>
@@ -3024,73 +2933,73 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A9" s="18">
-        <v>13</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>96</v>
+      <c r="F9" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="G9" s="22" t="str">
         <f>VLOOKUP(B9,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>钢网</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>97</v>
+        <v>自动光学检测仪</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="I9" s="40" t="str">
         <f>VLOOKUP(B9,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
-        <v>/</v>
-      </c>
-      <c r="J9" s="44">
-        <v>2</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>98</v>
+        <v>5000D</v>
+      </c>
+      <c r="J9" s="41">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M9" s="43">
-        <f ca="1" t="shared" ref="M9:M15" si="4">ROUND(EVALUATE(L9)*1000*0.000000001,2)</f>
-        <v>0.04</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>3.78</v>
       </c>
       <c r="N9" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>0.08</v>
+        <v>3.78</v>
       </c>
       <c r="O9" s="43">
-        <v>7.4</v>
+        <v>700</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="2"/>
-        <v>7.4</v>
+        <v>700</v>
       </c>
       <c r="Q9" s="45">
-        <v>7.2</v>
+        <v>650</v>
       </c>
       <c r="R9" s="45">
-        <v>7.2</v>
+        <v>650</v>
       </c>
       <c r="S9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U9" s="66" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
@@ -3101,10 +3010,10 @@
         <v>65</v>
       </c>
       <c r="Z9" s="80">
-        <v>500</v>
+        <v>90000</v>
       </c>
       <c r="AA9" s="81">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>66</v>
@@ -3115,10 +3024,10 @@
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A10" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>94</v>
@@ -3130,14 +3039,14 @@
         <v>58</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" s="22" t="str">
         <f>VLOOKUP(B10,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>分板治具</v>
+        <v>钢网</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I10" s="40" t="str">
         <f>VLOOKUP(B10,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3150,28 +3059,28 @@
         <v>98</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M10" s="43">
-        <f ca="1" t="shared" si="4"/>
-        <v>0.05</v>
+        <f ca="1" t="shared" ref="M10:M16" si="4">ROUND(EVALUATE(L10)*1000*0.000000001,2)</f>
+        <v>0.04</v>
       </c>
       <c r="N10" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="18">
-        <v>4</v>
+        <v>0.08</v>
+      </c>
+      <c r="O10" s="43">
+        <v>7.4</v>
       </c>
       <c r="P10" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="Q10" s="45">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="R10" s="45">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="S10" s="45">
         <v>2</v>
@@ -3181,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="66" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V10" s="67"/>
       <c r="W10" s="67"/>
@@ -3192,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="Z10" s="80">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AA10" s="81">
         <v>0.13</v>
@@ -3204,78 +3113,78 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:29">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:29">
       <c r="A11" s="18">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>109</v>
+      <c r="F11" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="G11" s="22" t="str">
         <f>VLOOKUP(B11,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>波峰焊活动轨</v>
+        <v>分板治具</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I11" s="40" t="str">
         <f>VLOOKUP(B11,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J11" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="47">
+      <c r="L11" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="43">
         <f ca="1" t="shared" si="4"/>
-        <v>1.08</v>
-      </c>
-      <c r="N11" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="43">
         <f ca="1" t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="O11" s="47">
-        <v>80</v>
-      </c>
-      <c r="P11" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4</v>
+      </c>
+      <c r="P11" s="18">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="Q11" s="51">
-        <v>25</v>
-      </c>
-      <c r="R11" s="51">
-        <v>78.59</v>
-      </c>
-      <c r="S11" s="51">
-        <v>1</v>
-      </c>
-      <c r="T11" s="48">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>3.8</v>
+      </c>
+      <c r="R11" s="45">
+        <v>3.8</v>
+      </c>
+      <c r="S11" s="45">
+        <v>2</v>
+      </c>
+      <c r="T11" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U11" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
+      <c r="U11" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
       <c r="X11" s="68" t="s">
         <v>64</v>
       </c>
@@ -3283,9 +3192,11 @@
         <v>65</v>
       </c>
       <c r="Z11" s="80">
-        <v>4520</v>
-      </c>
-      <c r="AA11" s="82"/>
+        <v>480</v>
+      </c>
+      <c r="AA11" s="81">
+        <v>0.13</v>
+      </c>
       <c r="AB11" s="1" t="s">
         <v>66</v>
       </c>
@@ -3295,10 +3206,10 @@
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A12" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>107</v>
@@ -3310,14 +3221,14 @@
         <v>58</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G12" s="22" t="str">
         <f>VLOOKUP(B12,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>波峰焊固定轨</v>
+        <v>波峰焊活动轨</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I12" s="40" t="str">
         <f>VLOOKUP(B12,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3329,18 +3240,40 @@
       <c r="K12" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
+      <c r="L12" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="47">
+        <f ca="1" t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="N12" s="47">
+        <f ca="1" t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="O12" s="47">
+        <v>80</v>
+      </c>
+      <c r="P12" s="48">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
       <c r="Q12" s="51">
         <v>25</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="71"/>
+      <c r="R12" s="51">
+        <v>78.59</v>
+      </c>
+      <c r="S12" s="51">
+        <v>1</v>
+      </c>
+      <c r="T12" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="V12" s="70"/>
       <c r="W12" s="70"/>
       <c r="X12" s="68" t="s">
@@ -3362,10 +3295,10 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A13" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>107</v>
@@ -3377,21 +3310,21 @@
         <v>58</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13" s="22" t="str">
         <f>VLOOKUP(B13,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条导向轮</v>
+        <v>波峰焊固定轨</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" s="40" t="str">
         <f>VLOOKUP(B13,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J13" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K13" s="45" t="s">
         <v>98</v>
@@ -3402,7 +3335,7 @@
       <c r="O13" s="50"/>
       <c r="P13" s="51"/>
       <c r="Q13" s="51">
-        <v>1.52</v>
+        <v>25</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
@@ -3417,7 +3350,7 @@
         <v>65</v>
       </c>
       <c r="Z13" s="80">
-        <v>141.25</v>
+        <v>4520</v>
       </c>
       <c r="AA13" s="82"/>
       <c r="AB13" s="1" t="s">
@@ -3429,10 +3362,10 @@
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A14" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>107</v>
@@ -3444,21 +3377,21 @@
         <v>58</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G14" s="22" t="str">
         <f>VLOOKUP(B14,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条齿轮</v>
+        <v>入口链条导向轮</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I14" s="40" t="str">
         <f>VLOOKUP(B14,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J14" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>98</v>
@@ -3484,7 +3417,7 @@
         <v>65</v>
       </c>
       <c r="Z14" s="80">
-        <v>226</v>
+        <v>141.25</v>
       </c>
       <c r="AA14" s="82"/>
       <c r="AB14" s="1" t="s">
@@ -3496,10 +3429,10 @@
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A15" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>107</v>
@@ -3511,14 +3444,14 @@
         <v>58</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G15" s="22" t="str">
         <f>VLOOKUP(B15,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>螺旋齿轮</v>
+        <v>入口链条齿轮</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I15" s="40" t="str">
         <f>VLOOKUP(B15,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3551,7 +3484,7 @@
         <v>65</v>
       </c>
       <c r="Z15" s="80">
-        <v>565</v>
+        <v>226</v>
       </c>
       <c r="AA15" s="82"/>
       <c r="AB15" s="1" t="s">
@@ -3563,10 +3496,10 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A16" s="18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>107</v>
@@ -3578,14 +3511,14 @@
         <v>58</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G16" s="22" t="str">
         <f>VLOOKUP(B16,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>伞齿</v>
+        <v>螺旋齿轮</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I16" s="40" t="str">
         <f>VLOOKUP(B16,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3603,7 +3536,7 @@
       <c r="O16" s="50"/>
       <c r="P16" s="51"/>
       <c r="Q16" s="51">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="R16" s="51"/>
       <c r="S16" s="51"/>
@@ -3618,7 +3551,7 @@
         <v>65</v>
       </c>
       <c r="Z16" s="80">
-        <v>508.5</v>
+        <v>565</v>
       </c>
       <c r="AA16" s="82"/>
       <c r="AB16" s="1" t="s">
@@ -3630,10 +3563,10 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A17" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>107</v>
@@ -3645,14 +3578,14 @@
         <v>58</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G17" s="22" t="str">
         <f>VLOOKUP(B17,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>运输链条</v>
+        <v>伞齿</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I17" s="40" t="str">
         <f>VLOOKUP(B17,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3662,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -3670,7 +3603,7 @@
       <c r="O17" s="50"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="51">
-        <v>1.52</v>
+        <v>2.52</v>
       </c>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
@@ -3685,7 +3618,7 @@
         <v>65</v>
       </c>
       <c r="Z17" s="80">
-        <v>226</v>
+        <v>508.5</v>
       </c>
       <c r="AA17" s="82"/>
       <c r="AB17" s="1" t="s">
@@ -3697,10 +3630,10 @@
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A18" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>107</v>
@@ -3712,14 +3645,14 @@
         <v>58</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" s="22" t="str">
         <f>VLOOKUP(B18,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>同步轮</v>
+        <v>运输链条</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>VLOOKUP(B18,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3729,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -3752,7 +3685,7 @@
         <v>65</v>
       </c>
       <c r="Z18" s="80">
-        <v>293.8</v>
+        <v>226</v>
       </c>
       <c r="AA18" s="82"/>
       <c r="AB18" s="1" t="s">
@@ -3764,10 +3697,10 @@
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A19" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>107</v>
@@ -3779,14 +3712,14 @@
         <v>58</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G19" s="22" t="str">
         <f>VLOOKUP(B19,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>入口链条</v>
+        <v>同步轮</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I19" s="40" t="str">
         <f>VLOOKUP(B19,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -3796,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -3804,7 +3737,7 @@
       <c r="O19" s="50"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51">
-        <v>3.56</v>
+        <v>1.52</v>
       </c>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
@@ -3819,7 +3752,7 @@
         <v>65</v>
       </c>
       <c r="Z19" s="80">
-        <v>226</v>
+        <v>293.8</v>
       </c>
       <c r="AA19" s="82"/>
       <c r="AB19" s="1" t="s">
@@ -3831,10 +3764,10 @@
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A20" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>107</v>
@@ -3846,24 +3779,24 @@
         <v>58</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G20" s="22" t="str">
         <f>VLOOKUP(B20,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>活动轨牙箱</v>
+        <v>入口链条</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I20" s="40" t="str">
         <f>VLOOKUP(B20,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J20" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -3871,7 +3804,7 @@
       <c r="O20" s="50"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51">
-        <v>7</v>
+        <v>3.56</v>
       </c>
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
@@ -3886,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="Z20" s="80">
-        <v>1808</v>
+        <v>226</v>
       </c>
       <c r="AA20" s="82"/>
       <c r="AB20" s="1" t="s">
@@ -3898,10 +3831,10 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A21" s="18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>107</v>
@@ -3913,21 +3846,21 @@
         <v>58</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="22" t="str">
         <f>VLOOKUP(B21,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>流量计</v>
+        <v>活动轨牙箱</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I21" s="40" t="str">
         <f>VLOOKUP(B21,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J21" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="45" t="s">
         <v>98</v>
@@ -3938,7 +3871,7 @@
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="51">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
@@ -3953,7 +3886,7 @@
         <v>65</v>
       </c>
       <c r="Z21" s="80">
-        <v>904</v>
+        <v>1808</v>
       </c>
       <c r="AA21" s="82"/>
       <c r="AB21" s="1" t="s">
@@ -3965,10 +3898,10 @@
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A22" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>107</v>
@@ -3980,14 +3913,14 @@
         <v>58</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="22" t="str">
         <f>VLOOKUP(B22,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>毛刷</v>
+        <v>流量计</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I22" s="40" t="str">
         <f>VLOOKUP(B22,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
@@ -4005,7 +3938,7 @@
       <c r="O22" s="50"/>
       <c r="P22" s="51"/>
       <c r="Q22" s="51">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
@@ -4020,7 +3953,7 @@
         <v>65</v>
       </c>
       <c r="Z22" s="80">
-        <v>113</v>
+        <v>904</v>
       </c>
       <c r="AA22" s="82"/>
       <c r="AB22" s="1" t="s">
@@ -4032,10 +3965,10 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A23" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>107</v>
@@ -4047,37 +3980,37 @@
         <v>58</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G23" s="22" t="str">
         <f>VLOOKUP(B23,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
-        <v>固定轨牙箱</v>
+        <v>毛刷</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I23" s="40" t="str">
         <f>VLOOKUP(B23,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
         <v>/</v>
       </c>
       <c r="J23" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45">
-        <v>7</v>
-      </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="72"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51">
+        <v>0.11</v>
+      </c>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="71"/>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
       <c r="X23" s="68" t="s">
@@ -4087,7 +4020,7 @@
         <v>65</v>
       </c>
       <c r="Z23" s="80">
-        <v>1808</v>
+        <v>113</v>
       </c>
       <c r="AA23" s="82"/>
       <c r="AB23" s="1" t="s">
@@ -4097,121 +4030,184 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:28">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:29">
       <c r="A24" s="18">
-        <v>32</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43">
-        <f ca="1">SUM(M3:M23)</f>
-        <v>21.14</v>
-      </c>
-      <c r="N24" s="43">
-        <f ca="1">SUM(N3:N23)</f>
-        <v>21.23</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43">
-        <f>SUM(P3:P23)</f>
-        <v>4831.4</v>
-      </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="22" t="str">
+        <f>VLOOKUP(B24,'[1]CI-CXCI20240619001'!$B$10:$C$32,2,0)</f>
+        <v>固定轨牙箱</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="40" t="str">
+        <f>VLOOKUP(B24,'[1]CI-CXCI20240619001'!$B$10:$D$32,3,0)</f>
+        <v>/</v>
+      </c>
+      <c r="J24" s="44">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45">
+        <v>7</v>
+      </c>
+      <c r="R24" s="45"/>
       <c r="S24" s="45"/>
-      <c r="T24" s="45">
-        <f>SUM(T3:T23)</f>
-        <v>9</v>
-      </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="81"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" s="80">
+        <v>1808</v>
+      </c>
+      <c r="AA24" s="82"/>
       <c r="AB24" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="AC24" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="2"/>
+      <c r="A25" s="18">
+        <v>32</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43">
+        <f ca="1">SUM(M4:M24)</f>
+        <v>21.14</v>
+      </c>
+      <c r="N25" s="43">
+        <f ca="1">SUM(N4:N24)</f>
+        <v>21.23</v>
+      </c>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43">
+        <f>SUM(P4:P24)</f>
+        <v>4831.4</v>
+      </c>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45">
+        <f>SUM(T4:T24)</f>
+        <v>9</v>
+      </c>
+      <c r="U25" s="73"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="59">
-        <f>SUM(J3:J24)</f>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="59">
+        <f>SUM(J4:J25)</f>
         <v>36</v>
       </c>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="61" t="e">
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="61" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62">
-        <f>SUM(P3:P24)</f>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62">
+        <f>SUM(P4:P25)</f>
         <v>9662.8</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="84"/>
-    </row>
-    <row r="27" customHeight="1" spans="26:27">
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="83"/>
       <c r="AA27" s="84"/>
     </row>
@@ -4271,32 +4267,36 @@
       <c r="Z41" s="83"/>
       <c r="AA41" s="84"/>
     </row>
+    <row r="42" customHeight="1" spans="26:27">
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="84"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="L11:L23"/>
-    <mergeCell ref="M11:M23"/>
-    <mergeCell ref="N11:N23"/>
-    <mergeCell ref="O11:O23"/>
-    <mergeCell ref="P11:P23"/>
-    <mergeCell ref="R11:R23"/>
-    <mergeCell ref="S11:S23"/>
-    <mergeCell ref="T11:T23"/>
-    <mergeCell ref="U11:U23"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="L12:L24"/>
+    <mergeCell ref="M12:M24"/>
+    <mergeCell ref="N12:N24"/>
+    <mergeCell ref="O12:O24"/>
+    <mergeCell ref="P12:P24"/>
+    <mergeCell ref="R12:R24"/>
+    <mergeCell ref="S12:S24"/>
+    <mergeCell ref="T12:T24"/>
+    <mergeCell ref="U12:U24"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B65482">
+  <conditionalFormatting sqref="B28:B65483">
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
